--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NOC_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NOC_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-78.576</v>
+        <v>-78.298</v>
       </c>
       <c r="B2" t="n">
-        <v>-78.124774825</v>
+        <v>-78.1288</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33.4134</v>
+        <v>33.6418</v>
       </c>
       <c r="B3" t="n">
-        <v>33.8648513868</v>
+        <v>33.7808</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-75.1915</v>
+        <v>-75.4785</v>
       </c>
       <c r="B4" t="n">
-        <v>-77.7375067586</v>
+        <v>-75.6532</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36.9088</v>
+        <v>36.6811</v>
       </c>
       <c r="B5" t="n">
-        <v>34.1687726592</v>
+        <v>36.5425</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NOC_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NOC_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-78.298</v>
+        <v>-78.9686</v>
       </c>
       <c r="B2" t="n">
-        <v>-78.1288</v>
+        <v>-78.3756</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33.6418</v>
+        <v>33.4733</v>
       </c>
       <c r="B3" t="n">
-        <v>33.7808</v>
+        <v>33.9687</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-75.4785</v>
+        <v>-74.7919</v>
       </c>
       <c r="B4" t="n">
-        <v>-75.6532</v>
+        <v>-75.4151</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36.6811</v>
+        <v>36.8443</v>
       </c>
       <c r="B5" t="n">
-        <v>36.5425</v>
+        <v>36.3582</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
